--- a/input/generated_test_cases3_video_showcase_feedbackAI_requisiti.xlsx
+++ b/input/generated_test_cases3_video_showcase_feedbackAI_requisiti.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="00FF0000"/>
@@ -49,10 +53,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,7 +79,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,9 +442,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK279"/>
+  <dimension ref="A1:AK276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4461,10 +4474,6 @@
         </is>
       </c>
     </row>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
@@ -12810,15 +12819,15 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>CaroselloHP 1234 requisito-CaroselloHP - TEST - Desktop_AIproposal_requisiti</t>
+          <t>CaroselloHP 1234 requisito-visualizzazione-carosello - TEST - Desktop_AIproposal_requisiti</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>TC-CHP-001</t>
-        </is>
-      </c>
-      <c r="C274" s="2" t="inlineStr"/>
+          <t>TC_CHP_1234_01</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="n"/>
       <c r="D274" s="2" t="inlineStr">
         <is>
           <t>Desktop</t>
@@ -12826,169 +12835,241 @@
       </c>
       <c r="E274" s="2" t="inlineStr">
         <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="inlineStr">
+        <is>
+          <t>Windows 10 - Chrome</t>
+        </is>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>User is not logged in. Backend returns no precompiled data for any market type.</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>HP Carousel Display Conditions</t>
+        </is>
+      </c>
+      <c r="M274" s="2" t="inlineStr">
+        <is>
+          <t>functional</t>
+        </is>
+      </c>
+      <c r="N274" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P274" s="2" t="inlineStr">
+        <is>
+          <t>No precompiled data in backend response.</t>
+        </is>
+      </c>
+      <c r="Q274" s="2" t="inlineStr">
+        <is>
+          <t>The HP carousel is not visible when no precompiled data is received.</t>
+        </is>
+      </c>
+      <c r="R274" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S274" s="2" t="inlineStr">
+        <is>
+          <t>Navigate to the Home Page with no precompiled data from backend (no quotable market types).</t>
+        </is>
+      </c>
+      <c r="T274" s="2" t="inlineStr">
+        <is>
+          <t>The HP carousel is not displayed on the Home Page.</t>
+        </is>
+      </c>
+      <c r="U274" s="2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="V274" s="2" t="n"/>
+      <c r="W274" s="2" t="n"/>
+      <c r="X274" s="2" t="n"/>
+      <c r="Y274" s="2" t="inlineStr">
+        <is>
+          <t>Test Case</t>
+        </is>
+      </c>
+      <c r="Z274" s="2" t="n"/>
+      <c r="AA274" s="2" t="inlineStr">
+        <is>
+          <t>carosello hp - condizioni di visualizzazione</t>
+        </is>
+      </c>
+      <c r="AB274" s="2" t="n"/>
+      <c r="AC274" s="2" t="n"/>
+      <c r="AD274" s="2" t="n"/>
+      <c r="AE274" s="2" t="n"/>
+      <c r="AF274" s="2" t="n"/>
+      <c r="AG274" s="2" t="n"/>
+      <c r="AH274" s="2" t="n"/>
+      <c r="AI274" s="2" t="n"/>
+      <c r="AJ274" s="2" t="n"/>
+      <c r="AK274" s="2" t="n"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>CaroselloHP 1234 requisito-visualizzazione-carosello - TEST - Desktop_AIproposal_requisiti</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>TC_CHP_1234_02</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="n"/>
+      <c r="D275" s="2" t="inlineStr">
+        <is>
           <t>Desktop</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="F275" s="2" t="inlineStr">
         <is>
           <t>Computer</t>
         </is>
       </c>
-      <c r="G274" s="2" t="inlineStr">
+      <c r="G275" s="2" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="inlineStr">
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>UAT</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="inlineStr">
         <is>
           <t>Windows 10 - Chrome</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>Utente autenticato o non autenticato; backend configurato per non restituire alcuna precompilata.</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="inlineStr">
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>User is not logged in. Backend returns only Calcio precompiled data.</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Visualizzazione Carosello HP</t>
-        </is>
-      </c>
-      <c r="M274" s="2" t="inlineStr">
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>HP Carousel Display Conditions</t>
+        </is>
+      </c>
+      <c r="M275" s="2" t="inlineStr">
         <is>
           <t>functional</t>
         </is>
       </c>
-      <c r="N274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P274" s="2" t="inlineStr">
-        <is>
-          <t>Nessun dato specifico richiesto.</t>
-        </is>
-      </c>
-      <c r="Q274" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello HP non deve essere visualizzato se il backend non restituisce alcuna precompilata.</t>
-        </is>
-      </c>
-      <c r="R274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S274" s="2" t="inlineStr">
-        <is>
-          <t>Accedere alla Home Page dell'applicativo da Desktop.</t>
-        </is>
-      </c>
-      <c r="T274" s="2" t="inlineStr">
-        <is>
-          <t>La Home Page viene caricata correttamente.</t>
-        </is>
-      </c>
-      <c r="U274" s="2" t="inlineStr">
+      <c r="N275" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P275" s="2" t="inlineStr">
+        <is>
+          <t>Backend response includes only Calcio precompiled data.</t>
+        </is>
+      </c>
+      <c r="Q275" s="2" t="inlineStr">
+        <is>
+          <t>The HP carousel displays only the Calcio item when Basket is missing.</t>
+        </is>
+      </c>
+      <c r="R275" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S275" s="2" t="inlineStr">
+        <is>
+          <t>Navigate to the Home Page with backend returning only Calcio precompiled data (no Basket).</t>
+        </is>
+      </c>
+      <c r="T275" s="2" t="inlineStr">
+        <is>
+          <t>The HP carousel is displayed with only the Calcio item.</t>
+        </is>
+      </c>
+      <c r="U275" s="2" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="V274" s="2" t="inlineStr"/>
-      <c r="W274" s="2" t="inlineStr"/>
-      <c r="X274" s="2" t="inlineStr"/>
-      <c r="Y274" s="2" t="inlineStr">
+      <c r="V275" s="2" t="n"/>
+      <c r="W275" s="2" t="n"/>
+      <c r="X275" s="2" t="n"/>
+      <c r="Y275" s="2" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="Z274" s="2" t="inlineStr"/>
-      <c r="AA274" s="2" t="inlineStr">
+      <c r="Z275" s="2" t="n"/>
+      <c r="AA275" s="2" t="inlineStr">
         <is>
           <t>carosello hp - condizioni di visualizzazione</t>
         </is>
       </c>
-      <c r="AB274" s="2" t="inlineStr"/>
-      <c r="AC274" s="2" t="inlineStr"/>
-      <c r="AD274" s="2" t="inlineStr"/>
-      <c r="AE274" s="2" t="inlineStr"/>
-      <c r="AF274" s="2" t="inlineStr"/>
-      <c r="AG274" s="2" t="inlineStr"/>
-      <c r="AH274" s="2" t="inlineStr"/>
-      <c r="AI274" s="2" t="inlineStr"/>
-      <c r="AJ274" s="2" t="inlineStr"/>
-      <c r="AK274" s="2" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="inlineStr"/>
-      <c r="B275" s="2" t="inlineStr"/>
-      <c r="C275" s="2" t="inlineStr"/>
-      <c r="D275" s="2" t="inlineStr"/>
-      <c r="E275" s="2" t="inlineStr"/>
-      <c r="F275" s="2" t="inlineStr"/>
-      <c r="G275" s="2" t="inlineStr"/>
-      <c r="H275" s="2" t="inlineStr"/>
-      <c r="I275" s="2" t="inlineStr"/>
-      <c r="J275" s="2" t="inlineStr"/>
-      <c r="K275" s="2" t="inlineStr"/>
-      <c r="L275" s="2" t="inlineStr"/>
-      <c r="M275" s="2" t="inlineStr"/>
-      <c r="N275" s="2" t="inlineStr"/>
-      <c r="O275" s="2" t="inlineStr"/>
-      <c r="P275" s="2" t="inlineStr"/>
-      <c r="Q275" s="2" t="inlineStr"/>
-      <c r="R275" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S275" s="2" t="inlineStr">
-        <is>
-          <t>Simulare una risposta dal backend senza alcuna precompilata (assenza totale di market type quotati in palinsesto).</t>
-        </is>
-      </c>
-      <c r="T275" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello HP non viene visualizzato sulla Home Page.</t>
-        </is>
-      </c>
-      <c r="U275" s="2" t="inlineStr"/>
-      <c r="V275" s="2" t="inlineStr"/>
-      <c r="W275" s="2" t="inlineStr"/>
-      <c r="X275" s="2" t="inlineStr"/>
-      <c r="Y275" s="2" t="inlineStr"/>
-      <c r="Z275" s="2" t="inlineStr"/>
-      <c r="AA275" s="2" t="inlineStr"/>
-      <c r="AB275" s="2" t="inlineStr"/>
-      <c r="AC275" s="2" t="inlineStr"/>
-      <c r="AD275" s="2" t="inlineStr"/>
-      <c r="AE275" s="2" t="inlineStr"/>
-      <c r="AF275" s="2" t="inlineStr"/>
-      <c r="AG275" s="2" t="inlineStr"/>
-      <c r="AH275" s="2" t="inlineStr"/>
-      <c r="AI275" s="2" t="inlineStr"/>
-      <c r="AJ275" s="2" t="inlineStr"/>
-      <c r="AK275" s="2" t="inlineStr"/>
+      <c r="AB275" s="2" t="n"/>
+      <c r="AC275" s="2" t="n"/>
+      <c r="AD275" s="2" t="n"/>
+      <c r="AE275" s="2" t="n"/>
+      <c r="AF275" s="2" t="n"/>
+      <c r="AG275" s="2" t="n"/>
+      <c r="AH275" s="2" t="n"/>
+      <c r="AI275" s="2" t="n"/>
+      <c r="AJ275" s="2" t="n"/>
+      <c r="AK275" s="2" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>CaroselloHP 1234 requisito-CaroselloHP - TEST - Desktop_AIproposal_requisiti</t>
+          <t>CaroselloHP 1234 requisito-visualizzazione-carosello - TEST - Desktop_AIproposal_requisiti</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>TC-CHP-002</t>
-        </is>
-      </c>
-      <c r="C276" s="2" t="inlineStr"/>
+          <t>TC_CHP_1234_03</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="n"/>
       <c r="D276" s="2" t="inlineStr">
         <is>
           <t>Desktop</t>
@@ -12996,7 +13077,7 @@
       </c>
       <c r="E276" s="2" t="inlineStr">
         <is>
-          <t>Desktop</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="F276" s="2" t="inlineStr">
@@ -13011,7 +13092,7 @@
       </c>
       <c r="H276" s="2" t="inlineStr">
         <is>
-          <t>TEST</t>
+          <t>UAT</t>
         </is>
       </c>
       <c r="I276" s="2" t="inlineStr">
@@ -13021,7 +13102,7 @@
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>Utente autenticato o non autenticato; backend configurato per non restituire precompilata Basket.</t>
+          <t>User is not logged in. Backend returns only Basket precompiled data.</t>
         </is>
       </c>
       <c r="K276" s="2" t="inlineStr">
@@ -13031,7 +13112,7 @@
       </c>
       <c r="L276" s="2" t="inlineStr">
         <is>
-          <t>Visualizzazione Carosello HP</t>
+          <t>HP Carousel Display Conditions</t>
         </is>
       </c>
       <c r="M276" s="2" t="inlineStr">
@@ -13039,20 +13120,20 @@
           <t>functional</t>
         </is>
       </c>
-      <c r="N276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O276" s="2" t="b">
+      <c r="N276" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O276" s="2" t="n">
         <v>1</v>
       </c>
       <c r="P276" s="2" t="inlineStr">
         <is>
-          <t>Nessun dato specifico richiesto.</t>
+          <t>Backend response includes only Basket precompiled data.</t>
         </is>
       </c>
       <c r="Q276" s="2" t="inlineStr">
         <is>
-          <t>Il carosello HP viene visualizzato con il solo item Calcio se manca la precompilata Basket.</t>
+          <t>The HP carousel displays only the Basket item when Calcio is missing.</t>
         </is>
       </c>
       <c r="R276" s="2" t="n">
@@ -13060,12 +13141,12 @@
       </c>
       <c r="S276" s="2" t="inlineStr">
         <is>
-          <t>Accedere alla Home Page dell'applicativo da Desktop.</t>
+          <t>Navigate to the Home Page with backend returning only Basket precompiled data (no Calcio).</t>
         </is>
       </c>
       <c r="T276" s="2" t="inlineStr">
         <is>
-          <t>La Home Page viene caricata correttamente.</t>
+          <t>The HP carousel is displayed with only the Basket item.</t>
         </is>
       </c>
       <c r="U276" s="2" t="inlineStr">
@@ -13073,251 +13154,32 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="V276" s="2" t="inlineStr"/>
-      <c r="W276" s="2" t="inlineStr"/>
-      <c r="X276" s="2" t="inlineStr"/>
+      <c r="V276" s="2" t="n"/>
+      <c r="W276" s="2" t="n"/>
+      <c r="X276" s="2" t="n"/>
       <c r="Y276" s="2" t="inlineStr">
         <is>
           <t>Test Case</t>
         </is>
       </c>
-      <c r="Z276" s="2" t="inlineStr"/>
+      <c r="Z276" s="2" t="n"/>
       <c r="AA276" s="2" t="inlineStr">
         <is>
           <t>carosello hp - condizioni di visualizzazione</t>
         </is>
       </c>
-      <c r="AB276" s="2" t="inlineStr"/>
-      <c r="AC276" s="2" t="inlineStr"/>
-      <c r="AD276" s="2" t="inlineStr"/>
-      <c r="AE276" s="2" t="inlineStr"/>
-      <c r="AF276" s="2" t="inlineStr"/>
-      <c r="AG276" s="2" t="inlineStr"/>
-      <c r="AH276" s="2" t="inlineStr"/>
-      <c r="AI276" s="2" t="inlineStr"/>
-      <c r="AJ276" s="2" t="inlineStr"/>
-      <c r="AK276" s="2" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="inlineStr"/>
-      <c r="B277" s="2" t="inlineStr"/>
-      <c r="C277" s="2" t="inlineStr"/>
-      <c r="D277" s="2" t="inlineStr"/>
-      <c r="E277" s="2" t="inlineStr"/>
-      <c r="F277" s="2" t="inlineStr"/>
-      <c r="G277" s="2" t="inlineStr"/>
-      <c r="H277" s="2" t="inlineStr"/>
-      <c r="I277" s="2" t="inlineStr"/>
-      <c r="J277" s="2" t="inlineStr"/>
-      <c r="K277" s="2" t="inlineStr"/>
-      <c r="L277" s="2" t="inlineStr"/>
-      <c r="M277" s="2" t="inlineStr"/>
-      <c r="N277" s="2" t="inlineStr"/>
-      <c r="O277" s="2" t="inlineStr"/>
-      <c r="P277" s="2" t="inlineStr"/>
-      <c r="Q277" s="2" t="inlineStr"/>
-      <c r="R277" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S277" s="2" t="inlineStr">
-        <is>
-          <t>Simulare una risposta dal backend senza precompilata Basket (assenza di market type quotati per Basket).</t>
-        </is>
-      </c>
-      <c r="T277" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello HP viene visualizzato con il solo item Calcio.</t>
-        </is>
-      </c>
-      <c r="U277" s="2" t="inlineStr"/>
-      <c r="V277" s="2" t="inlineStr"/>
-      <c r="W277" s="2" t="inlineStr"/>
-      <c r="X277" s="2" t="inlineStr"/>
-      <c r="Y277" s="2" t="inlineStr"/>
-      <c r="Z277" s="2" t="inlineStr"/>
-      <c r="AA277" s="2" t="inlineStr"/>
-      <c r="AB277" s="2" t="inlineStr"/>
-      <c r="AC277" s="2" t="inlineStr"/>
-      <c r="AD277" s="2" t="inlineStr"/>
-      <c r="AE277" s="2" t="inlineStr"/>
-      <c r="AF277" s="2" t="inlineStr"/>
-      <c r="AG277" s="2" t="inlineStr"/>
-      <c r="AH277" s="2" t="inlineStr"/>
-      <c r="AI277" s="2" t="inlineStr"/>
-      <c r="AJ277" s="2" t="inlineStr"/>
-      <c r="AK277" s="2" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="inlineStr">
-        <is>
-          <t>CaroselloHP 1234 requisito-CaroselloHP - TEST - Desktop_AIproposal_requisiti</t>
-        </is>
-      </c>
-      <c r="B278" s="2" t="inlineStr">
-        <is>
-          <t>TC-CHP-003</t>
-        </is>
-      </c>
-      <c r="C278" s="2" t="inlineStr"/>
-      <c r="D278" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="E278" s="2" t="inlineStr">
-        <is>
-          <t>Desktop</t>
-        </is>
-      </c>
-      <c r="F278" s="2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="G278" s="2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="H278" s="2" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="I278" s="2" t="inlineStr">
-        <is>
-          <t>Windows 10 - Chrome</t>
-        </is>
-      </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>Utente autenticato o non autenticato; backend configurato per non restituire precompilata Calcio.</t>
-        </is>
-      </c>
-      <c r="K278" s="2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="L278" s="2" t="inlineStr">
-        <is>
-          <t>Visualizzazione Carosello HP</t>
-        </is>
-      </c>
-      <c r="M278" s="2" t="inlineStr">
-        <is>
-          <t>functional</t>
-        </is>
-      </c>
-      <c r="N278" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O278" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P278" s="2" t="inlineStr">
-        <is>
-          <t>Nessun dato specifico richiesto.</t>
-        </is>
-      </c>
-      <c r="Q278" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello HP viene visualizzato con il solo item Basket se manca la precompilata Calcio.</t>
-        </is>
-      </c>
-      <c r="R278" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S278" s="2" t="inlineStr">
-        <is>
-          <t>Accedere alla Home Page dell'applicativo da Desktop.</t>
-        </is>
-      </c>
-      <c r="T278" s="2" t="inlineStr">
-        <is>
-          <t>La Home Page viene caricata correttamente.</t>
-        </is>
-      </c>
-      <c r="U278" s="2" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="V278" s="2" t="inlineStr"/>
-      <c r="W278" s="2" t="inlineStr"/>
-      <c r="X278" s="2" t="inlineStr"/>
-      <c r="Y278" s="2" t="inlineStr">
-        <is>
-          <t>Test Case</t>
-        </is>
-      </c>
-      <c r="Z278" s="2" t="inlineStr"/>
-      <c r="AA278" s="2" t="inlineStr">
-        <is>
-          <t>carosello hp - condizioni di visualizzazione</t>
-        </is>
-      </c>
-      <c r="AB278" s="2" t="inlineStr"/>
-      <c r="AC278" s="2" t="inlineStr"/>
-      <c r="AD278" s="2" t="inlineStr"/>
-      <c r="AE278" s="2" t="inlineStr"/>
-      <c r="AF278" s="2" t="inlineStr"/>
-      <c r="AG278" s="2" t="inlineStr"/>
-      <c r="AH278" s="2" t="inlineStr"/>
-      <c r="AI278" s="2" t="inlineStr"/>
-      <c r="AJ278" s="2" t="inlineStr"/>
-      <c r="AK278" s="2" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="inlineStr"/>
-      <c r="B279" s="2" t="inlineStr"/>
-      <c r="C279" s="2" t="inlineStr"/>
-      <c r="D279" s="2" t="inlineStr"/>
-      <c r="E279" s="2" t="inlineStr"/>
-      <c r="F279" s="2" t="inlineStr"/>
-      <c r="G279" s="2" t="inlineStr"/>
-      <c r="H279" s="2" t="inlineStr"/>
-      <c r="I279" s="2" t="inlineStr"/>
-      <c r="J279" s="2" t="inlineStr"/>
-      <c r="K279" s="2" t="inlineStr"/>
-      <c r="L279" s="2" t="inlineStr"/>
-      <c r="M279" s="2" t="inlineStr"/>
-      <c r="N279" s="2" t="inlineStr"/>
-      <c r="O279" s="2" t="inlineStr"/>
-      <c r="P279" s="2" t="inlineStr"/>
-      <c r="Q279" s="2" t="inlineStr"/>
-      <c r="R279" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S279" s="2" t="inlineStr">
-        <is>
-          <t>Simulare una risposta dal backend senza precompilata Calcio (assenza di market type quotati per Calcio).</t>
-        </is>
-      </c>
-      <c r="T279" s="2" t="inlineStr">
-        <is>
-          <t>Il carosello HP viene visualizzato con il solo item Basket.</t>
-        </is>
-      </c>
-      <c r="U279" s="2" t="inlineStr"/>
-      <c r="V279" s="2" t="inlineStr"/>
-      <c r="W279" s="2" t="inlineStr"/>
-      <c r="X279" s="2" t="inlineStr"/>
-      <c r="Y279" s="2" t="inlineStr"/>
-      <c r="Z279" s="2" t="inlineStr"/>
-      <c r="AA279" s="2" t="inlineStr"/>
-      <c r="AB279" s="2" t="inlineStr"/>
-      <c r="AC279" s="2" t="inlineStr"/>
-      <c r="AD279" s="2" t="inlineStr"/>
-      <c r="AE279" s="2" t="inlineStr"/>
-      <c r="AF279" s="2" t="inlineStr"/>
-      <c r="AG279" s="2" t="inlineStr"/>
-      <c r="AH279" s="2" t="inlineStr"/>
-      <c r="AI279" s="2" t="inlineStr"/>
-      <c r="AJ279" s="2" t="inlineStr"/>
-      <c r="AK279" s="2" t="inlineStr"/>
+      <c r="AB276" s="2" t="n"/>
+      <c r="AC276" s="2" t="n"/>
+      <c r="AD276" s="2" t="n"/>
+      <c r="AE276" s="2" t="n"/>
+      <c r="AF276" s="2" t="n"/>
+      <c r="AG276" s="2" t="n"/>
+      <c r="AH276" s="2" t="n"/>
+      <c r="AI276" s="2" t="n"/>
+      <c r="AJ276" s="2" t="n"/>
+      <c r="AK276" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>